--- a/code/Data packet sent.xlsx
+++ b/code/Data packet sent.xlsx
@@ -457,2816 +457,2816 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49000</v>
+        <v>51250</v>
       </c>
       <c r="B2" t="n">
-        <v>50500</v>
+        <v>45250</v>
       </c>
       <c r="C2" t="n">
-        <v>38500</v>
+        <v>44000</v>
       </c>
       <c r="D2" t="n">
-        <v>48500</v>
+        <v>54750</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91500</v>
+        <v>86750</v>
       </c>
       <c r="B3" t="n">
-        <v>98750</v>
+        <v>75250</v>
       </c>
       <c r="C3" t="n">
-        <v>38500</v>
+        <v>44000</v>
       </c>
       <c r="D3" t="n">
-        <v>75000</v>
+        <v>86750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>118250</v>
+        <v>117500</v>
       </c>
       <c r="B4" t="n">
-        <v>147750</v>
+        <v>120250</v>
       </c>
       <c r="C4" t="n">
-        <v>38500</v>
+        <v>64250</v>
       </c>
       <c r="D4" t="n">
-        <v>109250</v>
+        <v>118750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>160500</v>
+        <v>142250</v>
       </c>
       <c r="B5" t="n">
-        <v>193750</v>
+        <v>153750</v>
       </c>
       <c r="C5" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D5" t="n">
-        <v>115000</v>
+        <v>150750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>168500</v>
+        <v>164750</v>
       </c>
       <c r="B6" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C6" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D6" t="n">
-        <v>152250</v>
+        <v>179250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>190500</v>
+        <v>182750</v>
       </c>
       <c r="B7" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C7" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D7" t="n">
-        <v>178250</v>
+        <v>211250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>207250</v>
+        <v>210250</v>
       </c>
       <c r="B8" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C8" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D8" t="n">
-        <v>190000</v>
+        <v>258250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>212500</v>
+        <v>222750</v>
       </c>
       <c r="B9" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C9" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D9" t="n">
-        <v>207000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>218750</v>
+        <v>251250</v>
       </c>
       <c r="B10" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C10" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D10" t="n">
-        <v>217500</v>
+        <v>279500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>222250</v>
+        <v>256500</v>
       </c>
       <c r="B11" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C11" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D11" t="n">
-        <v>228000</v>
+        <v>301500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>229000</v>
+        <v>262250</v>
       </c>
       <c r="B12" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C12" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D12" t="n">
-        <v>238500</v>
+        <v>305250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B13" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C13" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D13" t="n">
-        <v>250250</v>
+        <v>312750</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B14" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C14" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D14" t="n">
-        <v>264750</v>
+        <v>323750</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B15" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C15" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D15" t="n">
-        <v>271000</v>
+        <v>331250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B16" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C16" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D16" t="n">
-        <v>277250</v>
+        <v>338750</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B17" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C17" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D17" t="n">
-        <v>283500</v>
+        <v>346250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B18" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C18" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D18" t="n">
-        <v>296000</v>
+        <v>353750</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B19" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C19" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D19" t="n">
-        <v>309000</v>
+        <v>378750</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B20" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C20" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D20" t="n">
-        <v>315250</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B21" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C21" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D21" t="n">
-        <v>328250</v>
+        <v>400500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B22" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C22" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D22" t="n">
-        <v>334500</v>
+        <v>404250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B23" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C23" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D23" t="n">
-        <v>347750</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B24" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C24" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D24" t="n">
-        <v>360750</v>
+        <v>413250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B25" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C25" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D25" t="n">
-        <v>367000</v>
+        <v>420250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B26" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C26" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D26" t="n">
-        <v>382500</v>
+        <v>427500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B27" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C27" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D27" t="n">
-        <v>399500</v>
+        <v>435250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B28" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C28" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D28" t="n">
-        <v>416500</v>
+        <v>443000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B29" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C29" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D29" t="n">
-        <v>429500</v>
+        <v>450250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B30" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C30" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D30" t="n">
-        <v>446500</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B31" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C31" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D31" t="n">
-        <v>463500</v>
+        <v>465750</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B32" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C32" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D32" t="n">
-        <v>480500</v>
+        <v>472000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B33" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C33" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D33" t="n">
-        <v>489500</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B34" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C34" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D34" t="n">
-        <v>490750</v>
+        <v>488000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B35" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C35" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D35" t="n">
-        <v>513500</v>
+        <v>496000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B36" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C36" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D36" t="n">
-        <v>536250</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B37" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C37" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D37" t="n">
-        <v>543500</v>
+        <v>512000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B38" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C38" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D38" t="n">
-        <v>550750</v>
+        <v>518250</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B39" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C39" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D39" t="n">
-        <v>560250</v>
+        <v>524500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B40" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C40" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D40" t="n">
-        <v>582000</v>
+        <v>530750</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B41" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C41" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D41" t="n">
-        <v>603750</v>
+        <v>540250</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B42" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C42" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D42" t="n">
-        <v>612500</v>
+        <v>549750</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B43" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C43" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D43" t="n">
-        <v>634250</v>
+        <v>555000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B44" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C44" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D44" t="n">
-        <v>656000</v>
+        <v>561000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B45" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C45" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D45" t="n">
-        <v>664000</v>
+        <v>566750</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B46" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C46" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D46" t="n">
-        <v>678000</v>
+        <v>575750</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B47" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C47" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D47" t="n">
-        <v>691250</v>
+        <v>578000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B48" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C48" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D48" t="n">
-        <v>703750</v>
+        <v>586500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B49" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C49" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D49" t="n">
-        <v>721000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B50" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C50" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D50" t="n">
-        <v>738250</v>
+        <v>603500</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B51" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C51" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D51" t="n">
-        <v>755500</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B52" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C52" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D52" t="n">
-        <v>772750</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B53" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C53" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D53" t="n">
-        <v>790000</v>
+        <v>626000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B54" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C54" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D54" t="n">
-        <v>807250</v>
+        <v>631500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B55" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C55" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D55" t="n">
-        <v>824500</v>
+        <v>636000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B56" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C56" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D56" t="n">
-        <v>828000</v>
+        <v>644500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B57" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C57" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D57" t="n">
-        <v>831500</v>
+        <v>653000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B58" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C58" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D58" t="n">
-        <v>835000</v>
+        <v>658500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B59" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C59" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D59" t="n">
-        <v>838500</v>
+        <v>665250</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B60" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C60" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D60" t="n">
-        <v>842000</v>
+        <v>672000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B61" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C61" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D61" t="n">
-        <v>858250</v>
+        <v>678000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B62" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C62" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D62" t="n">
-        <v>874500</v>
+        <v>686000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B63" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C63" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D63" t="n">
-        <v>890750</v>
+        <v>692000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B64" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C64" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D64" t="n">
-        <v>907000</v>
+        <v>698000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B65" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C65" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D65" t="n">
-        <v>923250</v>
+        <v>703250</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B66" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C66" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D66" t="n">
-        <v>939500</v>
+        <v>709250</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B67" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C67" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D67" t="n">
-        <v>955750</v>
+        <v>715250</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B68" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C68" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D68" t="n">
-        <v>972000</v>
+        <v>721250</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B69" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C69" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D69" t="n">
-        <v>988250</v>
+        <v>725500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B70" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C70" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D70" t="n">
-        <v>1004500</v>
+        <v>729750</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B71" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C71" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D71" t="n">
-        <v>1020750</v>
+        <v>735750</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B72" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C72" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D72" t="n">
-        <v>1034500</v>
+        <v>740500</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B73" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C73" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D73" t="n">
-        <v>1048500</v>
+        <v>745250</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B74" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C74" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D74" t="n">
-        <v>1062500</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B75" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C75" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D75" t="n">
-        <v>1062500</v>
+        <v>754250</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B76" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C76" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D76" t="n">
-        <v>1074000</v>
+        <v>760250</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B77" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C77" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D77" t="n">
-        <v>1085500</v>
+        <v>765000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B78" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C78" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D78" t="n">
-        <v>1097000</v>
+        <v>769750</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B79" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C79" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D79" t="n">
-        <v>1100500</v>
+        <v>775750</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B80" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C80" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D80" t="n">
-        <v>1111750</v>
+        <v>780500</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B81" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C81" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D81" t="n">
-        <v>1123000</v>
+        <v>785250</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B82" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C82" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D82" t="n">
-        <v>1134250</v>
+        <v>790000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B83" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C83" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D83" t="n">
-        <v>1134250</v>
+        <v>794750</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B84" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C84" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D84" t="n">
-        <v>1134500</v>
+        <v>800750</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B85" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C85" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D85" t="n">
-        <v>1145250</v>
+        <v>806750</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B86" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C86" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D86" t="n">
-        <v>1156000</v>
+        <v>811000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B87" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C87" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D87" t="n">
-        <v>1168000</v>
+        <v>815750</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B88" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C88" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D88" t="n">
-        <v>1179750</v>
+        <v>820500</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B89" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C89" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D89" t="n">
-        <v>1190500</v>
+        <v>826750</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B90" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C90" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D90" t="n">
-        <v>1195750</v>
+        <v>832000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B91" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C91" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D91" t="n">
-        <v>1201500</v>
+        <v>834750</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B92" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C92" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D92" t="n">
-        <v>1206750</v>
+        <v>840250</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B93" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C93" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D93" t="n">
-        <v>1216500</v>
+        <v>845750</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B94" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C94" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D94" t="n">
-        <v>1221750</v>
+        <v>851250</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B95" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C95" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D95" t="n">
-        <v>1231250</v>
+        <v>856750</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B96" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C96" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D96" t="n">
-        <v>1236500</v>
+        <v>861250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B97" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C97" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D97" t="n">
-        <v>1242250</v>
+        <v>866750</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B98" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C98" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D98" t="n">
-        <v>1242250</v>
+        <v>872250</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B99" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C99" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D99" t="n">
-        <v>1251000</v>
+        <v>877750</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B100" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C100" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D100" t="n">
-        <v>1259750</v>
+        <v>883250</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B101" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C101" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D101" t="n">
-        <v>1265000</v>
+        <v>888750</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B102" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C102" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D102" t="n">
-        <v>1273250</v>
+        <v>894250</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B103" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C103" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D103" t="n">
-        <v>1281500</v>
+        <v>899750</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B104" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C104" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D104" t="n">
-        <v>1286750</v>
+        <v>904250</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B105" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C105" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D105" t="n">
-        <v>1292250</v>
+        <v>908750</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B106" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C106" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D106" t="n">
-        <v>1297500</v>
+        <v>913250</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B107" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C107" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D107" t="n">
-        <v>1302750</v>
+        <v>918750</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B108" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C108" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D108" t="n">
-        <v>1308250</v>
+        <v>922750</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B109" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C109" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D109" t="n">
-        <v>1313500</v>
+        <v>927250</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B110" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C110" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D110" t="n">
-        <v>1318750</v>
+        <v>931750</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B111" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C111" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D111" t="n">
-        <v>1324000</v>
+        <v>937250</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B112" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C112" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D112" t="n">
-        <v>1329500</v>
+        <v>942750</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B113" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C113" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D113" t="n">
-        <v>1334750</v>
+        <v>948250</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B114" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C114" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D114" t="n">
-        <v>1335750</v>
+        <v>953750</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B115" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C115" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D115" t="n">
-        <v>1341250</v>
+        <v>959250</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B116" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C116" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D116" t="n">
-        <v>1346500</v>
+        <v>964750</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B117" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C117" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D117" t="n">
-        <v>1352000</v>
+        <v>970250</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B118" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C118" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D118" t="n">
-        <v>1357500</v>
+        <v>975750</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B119" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C119" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D119" t="n">
-        <v>1363000</v>
+        <v>981250</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B120" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C120" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D120" t="n">
-        <v>1368250</v>
+        <v>986750</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B121" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C121" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D121" t="n">
-        <v>1373750</v>
+        <v>992250</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B122" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C122" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D122" t="n">
-        <v>1379250</v>
+        <v>997750</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B123" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C123" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D123" t="n">
-        <v>1384750</v>
+        <v>1003250</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B124" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C124" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D124" t="n">
-        <v>1390250</v>
+        <v>1008750</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B125" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C125" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D125" t="n">
-        <v>1395750</v>
+        <v>1014250</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B126" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C126" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D126" t="n">
-        <v>1401250</v>
+        <v>1019750</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B127" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C127" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D127" t="n">
-        <v>1406750</v>
+        <v>1025250</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B128" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C128" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D128" t="n">
-        <v>1412250</v>
+        <v>1030750</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B129" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C129" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D129" t="n">
-        <v>1417750</v>
+        <v>1036250</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B130" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C130" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D130" t="n">
-        <v>1423250</v>
+        <v>1041750</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B131" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C131" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D131" t="n">
-        <v>1428750</v>
+        <v>1047250</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B132" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C132" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D132" t="n">
-        <v>1434250</v>
+        <v>1052750</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B133" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C133" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D133" t="n">
-        <v>1439750</v>
+        <v>1058250</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B134" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C134" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D134" t="n">
-        <v>1445250</v>
+        <v>1063750</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B135" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C135" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D135" t="n">
-        <v>1450750</v>
+        <v>1069250</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B136" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C136" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D136" t="n">
-        <v>1456250</v>
+        <v>1074750</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B137" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C137" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D137" t="n">
-        <v>1461750</v>
+        <v>1080250</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B138" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C138" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D138" t="n">
-        <v>1467250</v>
+        <v>1085750</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B139" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C139" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D139" t="n">
-        <v>1472750</v>
+        <v>1091250</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B140" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C140" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D140" t="n">
-        <v>1478250</v>
+        <v>1096750</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B141" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C141" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D141" t="n">
-        <v>1483750</v>
+        <v>1102250</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B142" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C142" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D142" t="n">
-        <v>1489250</v>
+        <v>1107750</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B143" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C143" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D143" t="n">
-        <v>1494750</v>
+        <v>1113250</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B144" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C144" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D144" t="n">
-        <v>1500250</v>
+        <v>1115500</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B145" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C145" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D145" t="n">
-        <v>1505750</v>
+        <v>1117750</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B146" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C146" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D146" t="n">
-        <v>1511250</v>
+        <v>1122500</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B147" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C147" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D147" t="n">
-        <v>1516750</v>
+        <v>1125750</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B148" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C148" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D148" t="n">
-        <v>1522250</v>
+        <v>1129000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B149" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C149" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D149" t="n">
-        <v>1528500</v>
+        <v>1135750</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B150" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C150" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D150" t="n">
-        <v>1534000</v>
+        <v>1139000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B151" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C151" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D151" t="n">
-        <v>1539250</v>
+        <v>1142250</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B152" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C152" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D152" t="n">
-        <v>1544750</v>
+        <v>1145500</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B153" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C153" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D153" t="n">
-        <v>1550250</v>
+        <v>1148500</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B154" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C154" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D154" t="n">
-        <v>1555750</v>
+        <v>1151750</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B155" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C155" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D155" t="n">
-        <v>1561250</v>
+        <v>1157250</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B156" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C156" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D156" t="n">
-        <v>1566500</v>
+        <v>1162750</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B157" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C157" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D157" t="n">
-        <v>1572000</v>
+        <v>1166000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B158" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C158" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D158" t="n">
-        <v>1577500</v>
+        <v>1169250</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B159" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C159" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D159" t="n">
-        <v>1583000</v>
+        <v>1174000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B160" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C160" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D160" t="n">
-        <v>1588500</v>
+        <v>1178500</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B161" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C161" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D161" t="n">
-        <v>1594000</v>
+        <v>1183250</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B162" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C162" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D162" t="n">
-        <v>1599500</v>
+        <v>1188000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B163" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C163" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D163" t="n">
-        <v>1605750</v>
+        <v>1192750</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B164" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C164" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D164" t="n">
-        <v>1611250</v>
+        <v>1197500</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B165" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C165" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D165" t="n">
-        <v>1616750</v>
+        <v>1197750</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B166" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C166" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D166" t="n">
-        <v>1622250</v>
+        <v>1202500</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B167" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C167" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D167" t="n">
-        <v>1627750</v>
+        <v>1208750</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B168" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C168" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D168" t="n">
-        <v>1633250</v>
+        <v>1213500</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B169" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C169" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D169" t="n">
-        <v>1639500</v>
+        <v>1218250</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B170" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C170" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D170" t="n">
-        <v>1645000</v>
+        <v>1223000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B171" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C171" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D171" t="n">
-        <v>1650500</v>
+        <v>1224500</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B172" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C172" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D172" t="n">
-        <v>1656000</v>
+        <v>1228750</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B173" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C173" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D173" t="n">
-        <v>1661500</v>
+        <v>1233250</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B174" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C174" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D174" t="n">
-        <v>1667000</v>
+        <v>1237500</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B175" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C175" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D175" t="n">
-        <v>1672500</v>
+        <v>1239000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B176" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C176" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D176" t="n">
-        <v>1678000</v>
+        <v>1241750</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B177" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C177" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D177" t="n">
-        <v>1683500</v>
+        <v>1244500</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B178" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C178" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D178" t="n">
-        <v>1689000</v>
+        <v>1247250</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B179" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C179" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D179" t="n">
-        <v>1694500</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B180" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C180" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D180" t="n">
-        <v>1699750</v>
+        <v>1252750</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B181" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C181" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D181" t="n">
-        <v>1705250</v>
+        <v>1255500</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B182" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C182" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D182" t="n">
-        <v>1710750</v>
+        <v>1258250</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B183" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C183" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D183" t="n">
-        <v>1716250</v>
+        <v>1258500</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B184" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C184" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D184" t="n">
-        <v>1721750</v>
+        <v>1261250</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B185" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C185" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D185" t="n">
-        <v>1727250</v>
+        <v>1264000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B186" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C186" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D186" t="n">
-        <v>1732750</v>
+        <v>1266750</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B187" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C187" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D187" t="n">
-        <v>1738250</v>
+        <v>1271250</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B188" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C188" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D188" t="n">
-        <v>1744000</v>
+        <v>1271500</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B189" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C189" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D189" t="n">
-        <v>1749500</v>
+        <v>1273750</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B190" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C190" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D190" t="n">
-        <v>1755000</v>
+        <v>1274750</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B191" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C191" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D191" t="n">
-        <v>1760500</v>
+        <v>1275750</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B192" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C192" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D192" t="n">
-        <v>1766000</v>
+        <v>1278250</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B193" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C193" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D193" t="n">
-        <v>1771500</v>
+        <v>1281750</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B194" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C194" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D194" t="n">
-        <v>1777000</v>
+        <v>1282750</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B195" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C195" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D195" t="n">
-        <v>1782500</v>
+        <v>1285250</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B196" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C196" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D196" t="n">
-        <v>1788000</v>
+        <v>1285750</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B197" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C197" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D197" t="n">
-        <v>1793500</v>
+        <v>1289000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B198" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C198" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D198" t="n">
-        <v>1799000</v>
+        <v>1291250</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B199" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C199" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D199" t="n">
-        <v>1804500</v>
+        <v>1296500</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B200" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C200" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D200" t="n">
-        <v>1810000</v>
+        <v>1298750</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B201" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C201" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D201" t="n">
-        <v>1810250</v>
+        <v>1301750</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>229000</v>
+        <v>264500</v>
       </c>
       <c r="B202" t="n">
-        <v>221000</v>
+        <v>178000</v>
       </c>
       <c r="C202" t="n">
-        <v>57000</v>
+        <v>64250</v>
       </c>
       <c r="D202" t="n">
-        <v>1815750</v>
+        <v>1304000</v>
       </c>
     </row>
   </sheetData>
